--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H2">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.570959559341502</v>
+        <v>0.180361</v>
       </c>
       <c r="N2">
-        <v>0.570959559341502</v>
+        <v>0.541083</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0864811533569519</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0864811533569519</v>
       </c>
       <c r="Q2">
-        <v>0.2186443337051902</v>
+        <v>0.4083812519636666</v>
       </c>
       <c r="R2">
-        <v>0.2186443337051902</v>
+        <v>3.675431267673</v>
       </c>
       <c r="S2">
-        <v>0.112896984682728</v>
+        <v>0.03558679460675706</v>
       </c>
       <c r="T2">
-        <v>0.112896984682728</v>
+        <v>0.03558679460675706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.01421531966751</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H3">
-        <v>2.01421531966751</v>
+        <v>6.792731</v>
       </c>
       <c r="I3">
-        <v>0.5938207363976236</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J3">
-        <v>0.5938207363976236</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.570959559341502</v>
+        <v>0.6566146666666667</v>
       </c>
       <c r="N3">
-        <v>0.570959559341502</v>
+        <v>1.969844</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3148396476201832</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3148396476201832</v>
       </c>
       <c r="Q3">
-        <v>1.150035491336264</v>
+        <v>1.486735600440445</v>
       </c>
       <c r="R3">
-        <v>1.150035491336264</v>
+        <v>13.380620403964</v>
       </c>
       <c r="S3">
-        <v>0.5938207363976236</v>
+        <v>0.1295557868854737</v>
       </c>
       <c r="T3">
-        <v>0.5938207363976236</v>
+        <v>0.1295557868854737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.175545146164755</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H4">
-        <v>0.175545146164755</v>
+        <v>6.792731</v>
       </c>
       <c r="I4">
-        <v>0.05175332892602105</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J4">
-        <v>0.05175332892602105</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.570959559341502</v>
+        <v>1.248577</v>
       </c>
       <c r="N4">
-        <v>0.570959559341502</v>
+        <v>3.745731</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5986791990228648</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5986791990228649</v>
       </c>
       <c r="Q4">
-        <v>0.1002291792987681</v>
+        <v>2.827082564595667</v>
       </c>
       <c r="R4">
-        <v>0.1002291792987681</v>
+        <v>25.443743081361</v>
       </c>
       <c r="S4">
-        <v>0.05175332892602105</v>
+        <v>0.2463551058694557</v>
       </c>
       <c r="T4">
-        <v>0.05175332892602105</v>
+        <v>0.2463551058694558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,551 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.089228666666667</v>
+      </c>
+      <c r="H5">
+        <v>6.267686</v>
+      </c>
+      <c r="I5">
+        <v>0.3796909216792509</v>
+      </c>
+      <c r="J5">
+        <v>0.3796909216792509</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.180361</v>
+      </c>
+      <c r="N5">
+        <v>0.541083</v>
+      </c>
+      <c r="O5">
+        <v>0.0864811533569519</v>
+      </c>
+      <c r="P5">
+        <v>0.0864811533569519</v>
+      </c>
+      <c r="Q5">
+        <v>0.3768153715486666</v>
+      </c>
+      <c r="R5">
+        <v>3.391338343938</v>
+      </c>
+      <c r="S5">
+        <v>0.03283610882598571</v>
+      </c>
+      <c r="T5">
+        <v>0.03283610882598571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.819256185244795</v>
-      </c>
-      <c r="H5">
-        <v>0.819256185244795</v>
-      </c>
-      <c r="I5">
-        <v>0.2415289499936274</v>
-      </c>
-      <c r="J5">
-        <v>0.2415289499936274</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.570959559341502</v>
-      </c>
-      <c r="N5">
-        <v>0.570959559341502</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.4677621505151681</v>
-      </c>
-      <c r="R5">
-        <v>0.4677621505151681</v>
-      </c>
-      <c r="S5">
-        <v>0.2415289499936274</v>
-      </c>
-      <c r="T5">
-        <v>0.2415289499936274</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.089228666666667</v>
+      </c>
+      <c r="H6">
+        <v>6.267686</v>
+      </c>
+      <c r="I6">
+        <v>0.3796909216792509</v>
+      </c>
+      <c r="J6">
+        <v>0.3796909216792509</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6566146666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.969844</v>
+      </c>
+      <c r="O6">
+        <v>0.3148396476201832</v>
+      </c>
+      <c r="P6">
+        <v>0.3148396476201832</v>
+      </c>
+      <c r="Q6">
+        <v>1.371818184553778</v>
+      </c>
+      <c r="R6">
+        <v>12.346363660984</v>
+      </c>
+      <c r="S6">
+        <v>0.1195417559860779</v>
+      </c>
+      <c r="T6">
+        <v>0.1195417559860779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.089228666666667</v>
+      </c>
+      <c r="H7">
+        <v>6.267686</v>
+      </c>
+      <c r="I7">
+        <v>0.3796909216792509</v>
+      </c>
+      <c r="J7">
+        <v>0.3796909216792509</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.248577</v>
+      </c>
+      <c r="N7">
+        <v>3.745731</v>
+      </c>
+      <c r="O7">
+        <v>0.5986791990228648</v>
+      </c>
+      <c r="P7">
+        <v>0.5986791990228649</v>
+      </c>
+      <c r="Q7">
+        <v>2.608562860940666</v>
+      </c>
+      <c r="R7">
+        <v>23.477065748466</v>
+      </c>
+      <c r="S7">
+        <v>0.2273130568671872</v>
+      </c>
+      <c r="T7">
+        <v>0.2273130568671873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1905406666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.571622</v>
+      </c>
+      <c r="I8">
+        <v>0.03462835949856721</v>
+      </c>
+      <c r="J8">
+        <v>0.03462835949856721</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.180361</v>
+      </c>
+      <c r="N8">
+        <v>0.541083</v>
+      </c>
+      <c r="O8">
+        <v>0.0864811533569519</v>
+      </c>
+      <c r="P8">
+        <v>0.0864811533569519</v>
+      </c>
+      <c r="Q8">
+        <v>0.03436610518066666</v>
+      </c>
+      <c r="R8">
+        <v>0.309294946626</v>
+      </c>
+      <c r="S8">
+        <v>0.002994700468295253</v>
+      </c>
+      <c r="T8">
+        <v>0.002994700468295253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1905406666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.571622</v>
+      </c>
+      <c r="I9">
+        <v>0.03462835949856721</v>
+      </c>
+      <c r="J9">
+        <v>0.03462835949856721</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6566146666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.969844</v>
+      </c>
+      <c r="O9">
+        <v>0.3148396476201832</v>
+      </c>
+      <c r="P9">
+        <v>0.3148396476201832</v>
+      </c>
+      <c r="Q9">
+        <v>0.1251117963297778</v>
+      </c>
+      <c r="R9">
+        <v>1.126006166968</v>
+      </c>
+      <c r="S9">
+        <v>0.01090238050219393</v>
+      </c>
+      <c r="T9">
+        <v>0.01090238050219393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1905406666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.571622</v>
+      </c>
+      <c r="I10">
+        <v>0.03462835949856721</v>
+      </c>
+      <c r="J10">
+        <v>0.03462835949856721</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.248577</v>
+      </c>
+      <c r="N10">
+        <v>3.745731</v>
+      </c>
+      <c r="O10">
+        <v>0.5986791990228648</v>
+      </c>
+      <c r="P10">
+        <v>0.5986791990228649</v>
+      </c>
+      <c r="Q10">
+        <v>0.2379046939646666</v>
+      </c>
+      <c r="R10">
+        <v>2.141142245682</v>
+      </c>
+      <c r="S10">
+        <v>0.02073127852807803</v>
+      </c>
+      <c r="T10">
+        <v>0.02073127852807803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9584326666666668</v>
+      </c>
+      <c r="H11">
+        <v>2.875298</v>
+      </c>
+      <c r="I11">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="J11">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.180361</v>
+      </c>
+      <c r="N11">
+        <v>0.541083</v>
+      </c>
+      <c r="O11">
+        <v>0.0864811533569519</v>
+      </c>
+      <c r="P11">
+        <v>0.0864811533569519</v>
+      </c>
+      <c r="Q11">
+        <v>0.1728638741926667</v>
+      </c>
+      <c r="R11">
+        <v>1.555774867734</v>
+      </c>
+      <c r="S11">
+        <v>0.01506354945591388</v>
+      </c>
+      <c r="T11">
+        <v>0.01506354945591388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9584326666666668</v>
+      </c>
+      <c r="H12">
+        <v>2.875298</v>
+      </c>
+      <c r="I12">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="J12">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6566146666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.969844</v>
+      </c>
+      <c r="O12">
+        <v>0.3148396476201832</v>
+      </c>
+      <c r="P12">
+        <v>0.3148396476201832</v>
+      </c>
+      <c r="Q12">
+        <v>0.6293209459457779</v>
+      </c>
+      <c r="R12">
+        <v>5.663888513512001</v>
+      </c>
+      <c r="S12">
+        <v>0.05483972424643766</v>
+      </c>
+      <c r="T12">
+        <v>0.05483972424643766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9584326666666668</v>
+      </c>
+      <c r="H13">
+        <v>2.875298</v>
+      </c>
+      <c r="I13">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="J13">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.248577</v>
+      </c>
+      <c r="N13">
+        <v>3.745731</v>
+      </c>
+      <c r="O13">
+        <v>0.5986791990228648</v>
+      </c>
+      <c r="P13">
+        <v>0.5986791990228649</v>
+      </c>
+      <c r="Q13">
+        <v>1.196676983648667</v>
+      </c>
+      <c r="R13">
+        <v>10.770092852838</v>
+      </c>
+      <c r="S13">
+        <v>0.1042797577581439</v>
+      </c>
+      <c r="T13">
+        <v>0.1042797577581439</v>
       </c>
     </row>
   </sheetData>
